--- a/Config/基础配置/GenConfig.xlsx
+++ b/Config/基础配置/GenConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>##</t>
   </si>
@@ -77,6 +77,15 @@
   </si>
   <si>
     <t>物品修复信息</t>
+  </si>
+  <si>
+    <t>SkillCnf</t>
+  </si>
+  <si>
+    <t>J_技能.xlsx</t>
+  </si>
+  <si>
+    <t>技能信息</t>
   </si>
   <si>
     <t>LCMap</t>
@@ -1101,10 +1110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1208,52 +1217,52 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1276,19 +1285,36 @@
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="1" t="s">
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Config/基础配置/GenConfig.xlsx
+++ b/Config/基础配置/GenConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13140"/>
+    <workbookView windowWidth="28125" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>测试</t>
   </si>
   <si>
-    <t>Demo.Config</t>
+    <t>Cnf</t>
   </si>
   <si>
     <t>ItemCnf</t>
@@ -1113,7 +1113,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>

--- a/Config/基础配置/GenConfig.xlsx
+++ b/Config/基础配置/GenConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="28125" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>##</t>
   </si>
@@ -98,6 +98,27 @@
   </si>
   <si>
     <t>演员信息</t>
+  </si>
+  <si>
+    <t>ActorLifeCnf</t>
+  </si>
+  <si>
+    <t>Y_演员生活.xlsx</t>
+  </si>
+  <si>
+    <t>演员生活</t>
+  </si>
+  <si>
+    <t>ActorProduceCnf</t>
+  </si>
+  <si>
+    <t>生产工作策略</t>
+  </si>
+  <si>
+    <t>ActorCollectCnf</t>
+  </si>
+  <si>
+    <t>采集工作策略</t>
   </si>
   <si>
     <t>ActorBasePropertyCnf</t>
@@ -1110,10 +1131,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1257,10 +1278,10 @@
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>30</v>
@@ -1274,13 +1295,30 @@
         <v>31</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -1288,33 +1326,67 @@
         <v>10</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
+      <c r="F15" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="1" t="s">
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
